--- a/EFS/cap05-Definicion_Topologia_Usuarios/Definición y tipologia de usuarios_150318.xlsx
+++ b/EFS/cap05-Definicion_Topologia_Usuarios/Definición y tipologia de usuarios_150318.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="713" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
     <sheet name="AS-S" sheetId="10" r:id="rId2"/>
-    <sheet name="PP" sheetId="4" r:id="rId3"/>
-    <sheet name="AP" sheetId="5" r:id="rId4"/>
-    <sheet name="MF" sheetId="6" r:id="rId5"/>
-    <sheet name="Marketing" sheetId="8" r:id="rId6"/>
-    <sheet name="Nuevas cuentas" sheetId="9" r:id="rId7"/>
-    <sheet name="Key Users" sheetId="7" r:id="rId8"/>
+    <sheet name="AS-R" sheetId="11" r:id="rId3"/>
+    <sheet name="PP" sheetId="4" r:id="rId4"/>
+    <sheet name="AP" sheetId="5" r:id="rId5"/>
+    <sheet name="MF" sheetId="6" r:id="rId6"/>
+    <sheet name="Mkt" sheetId="8" r:id="rId7"/>
+    <sheet name="AdminCRM" sheetId="9" r:id="rId8"/>
+    <sheet name="CRM Data" sheetId="14" r:id="rId9"/>
+    <sheet name="Key Users" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -193,8 +195,56 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angel Campos</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Angel Campos</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -223,47 +273,10 @@
     <t xml:space="preserve">Planificación Producción  </t>
   </si>
   <si>
-    <t>HQ FV Sarriguren, Fábrica Sesma</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">PC </t>
-  </si>
-  <si>
-    <t>Introducir costes        Introducir información cuentas nuevas (a través de alguien?)          Introducir previsiones y probabilidades de pipeline, o modificar las introducidas por otro
-…</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cristina Medrano</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Jorge Martinez, Nuevo producción, Javier Gurpegui, Oscar Santibañez?, Maider?, Laura Perez?, David Solé, Álvaro Miranda</t>
-    </r>
-  </si>
-  <si>
-    <t>Informes estadísticos por filiales y globales negocio               Datos clientes
-…</t>
-  </si>
-  <si>
-    <t>Status de los KPIs de sus KAM y RM                        Mantenerse informado novedades (Ingeflash)               Informesde pipeline,previsiones y probabilidades por filiales y globales</t>
   </si>
   <si>
     <t xml:space="preserve">Informes marcha negocio filiales y global       Status proyectos y pipelines       </t>
@@ -399,15 +412,6 @@
     <t>Number of licenses (currently used + short time)</t>
   </si>
   <si>
-    <t>Solicitudes de nuevas cuentas
-Oportunidades
-Cuentas comerciales
-Actividades comerciales (llamadas, visitas)
-Ofertas
-Incidencias técnicas (soporte al cliente)
-Noticias relacionadas con sus cuentas</t>
-  </si>
-  <si>
     <t>CRM Major advantages</t>
   </si>
   <si>
@@ -426,9 +430,6 @@
   </si>
   <si>
     <t>Marketing</t>
-  </si>
-  <si>
-    <t>Nuevas cuentas</t>
   </si>
   <si>
     <t>Office, VPN, Internet, Offline</t>
@@ -580,6 +581,93 @@
   <si>
     <t>Consulta de cuentas FV (Fichas de empresa)
 Consulta datos globales sobre su región (informes)</t>
+  </si>
+  <si>
+    <t>AfterSales-Repairs</t>
+  </si>
+  <si>
+    <t>Administración CRM</t>
+  </si>
+  <si>
+    <t>Gestión grupos y usuarios</t>
+  </si>
+  <si>
+    <t>CRM Data Entry Assistant</t>
+  </si>
+  <si>
+    <t>PC Desktop</t>
+  </si>
+  <si>
+    <t>Vanesa Martínez, ASR Italia, ASR Francia, ASR USA, ASR Fábrica</t>
+  </si>
+  <si>
+    <t>Fichas de Empresas FV</t>
+  </si>
+  <si>
+    <t>Solicitudes de nuevas cuentas
+Actividades comerciales (llamadas reactivas)
+Presupuestos de reparaciones
+Incidencias técnicas (soporte al cliente)</t>
+  </si>
+  <si>
+    <t>Realización de presupuestos (mecanización, calidad)
+Workflows (asistente, ayuda, trabajo en equipo, estandarización)
+Canal de información de novedades (Ingeflash)</t>
+  </si>
+  <si>
+    <t>Consulta de cuentas FV (Fichas de empresa)</t>
+  </si>
+  <si>
+    <t>Solicitudes de nuevas cuentas
+Oportunidades
+Cuentas comerciales
+Actividades comerciales (llamadas, visitas)
+After-Sales Field
+Ofertas
+Incidencias técnicas (soporte al cliente)
+Noticias relacionadas con sus cuentas</t>
+  </si>
+  <si>
+    <t>HQ FV Sarriguren, Fábrica Sesma, Fábrica Milwaukee, Fábrica Campinas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cristina Medrano</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Juan Hernández/Javier Gurpegui, David Solé/Álvaro Pajares, PP USA, PP Brasil</t>
+    </r>
+  </si>
+  <si>
+    <t>Plazos de entrega para ofertas</t>
+  </si>
+  <si>
+    <t>Ofertas (por prob., fecha, y producto)
+Informes estadísticos por filiales y globales negocio               Fichas de clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status proyectos (ofertas) y pipelines
+Informes de entregas por equipos y MW, y en filiales y global       </t>
+  </si>
+  <si>
+    <t>Entrega de plazos (estandarización, registro, calidad)
+Informes (pipeline, previsiones, probabilidades por filiales y globales)
+Canal de información de novedades (Ingeflash)</t>
   </si>
 </sst>
 </file>
@@ -1027,19 +1115,19 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
     <col min="2" max="4" width="60.140625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1053,24 +1141,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1081,21 +1169,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1104,15 +1192,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -1123,7 +1211,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -1137,49 +1225,49 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1187,58 +1275,58 @@
     </row>
     <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1248,64 +1336,124 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="60.140625" style="5" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -1313,7 +1461,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1321,64 +1469,64 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1392,417 +1540,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" style="5" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="5" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="56" style="5" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,109 +1960,133 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
@@ -1932,107 +2101,107 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2045,61 +2214,237 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>